--- a/PhoenixCI/Excel_Template/30410.xlsx
+++ b/PhoenixCI/Excel_Template/30410.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9806CE15-E5E6-4B6A-A54E-EDDC3FDA3294}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7E8795F-0C03-486C-8916-B38D590DC04C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="771" activeTab="2"/>
+    <workbookView xWindow="32760" yWindow="15" windowWidth="17400" windowHeight="11865" tabRatio="771" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="30410" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -549,26 +548,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -577,34 +576,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -631,32 +630,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -676,13 +678,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9656,12 +9661,12 @@
       <c r="B1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28"/>
@@ -9674,28 +9679,28 @@
       <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="39"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -16724,17 +16729,17 @@
       <c r="I504" s="24"/>
     </row>
     <row r="505" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="36" t="s">
+      <c r="A505" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B505" s="37"/>
-      <c r="C505" s="37"/>
-      <c r="D505" s="37"/>
-      <c r="E505" s="37"/>
-      <c r="F505" s="37"/>
-      <c r="G505" s="37"/>
-      <c r="H505" s="37"/>
-      <c r="I505" s="37"/>
+      <c r="B505" s="38"/>
+      <c r="C505" s="38"/>
+      <c r="D505" s="38"/>
+      <c r="E505" s="38"/>
+      <c r="F505" s="38"/>
+      <c r="G505" s="38"/>
+      <c r="H505" s="38"/>
+      <c r="I505" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -16779,12 +16784,12 @@
       <c r="B1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -16797,28 +16802,28 @@
       <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="39"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -23829,17 +23834,17 @@
       <c r="I504" s="24"/>
     </row>
     <row r="505" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="36" t="s">
+      <c r="A505" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B505" s="37"/>
-      <c r="C505" s="37"/>
-      <c r="D505" s="37"/>
-      <c r="E505" s="37"/>
-      <c r="F505" s="37"/>
-      <c r="G505" s="37"/>
-      <c r="H505" s="37"/>
-      <c r="I505" s="37"/>
+      <c r="B505" s="38"/>
+      <c r="C505" s="38"/>
+      <c r="D505" s="38"/>
+      <c r="E505" s="38"/>
+      <c r="F505" s="38"/>
+      <c r="G505" s="38"/>
+      <c r="H505" s="38"/>
+      <c r="I505" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/PhoenixCI/Excel_Template/30410.xlsx
+++ b/PhoenixCI/Excel_Template/30410.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7E8795F-0C03-486C-8916-B38D590DC04C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9806CE15-E5E6-4B6A-A54E-EDDC3FDA3294}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="15" windowWidth="17400" windowHeight="11865" tabRatio="771" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="771" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="30410" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -548,26 +549,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,34 +577,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -630,35 +631,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -678,16 +676,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9661,12 +9656,12 @@
       <c r="B1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28"/>
@@ -9679,28 +9674,28 @@
       <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -16729,17 +16724,17 @@
       <c r="I504" s="24"/>
     </row>
     <row r="505" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="37" t="s">
+      <c r="A505" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B505" s="38"/>
-      <c r="C505" s="38"/>
-      <c r="D505" s="38"/>
-      <c r="E505" s="38"/>
-      <c r="F505" s="38"/>
-      <c r="G505" s="38"/>
-      <c r="H505" s="38"/>
-      <c r="I505" s="38"/>
+      <c r="B505" s="37"/>
+      <c r="C505" s="37"/>
+      <c r="D505" s="37"/>
+      <c r="E505" s="37"/>
+      <c r="F505" s="37"/>
+      <c r="G505" s="37"/>
+      <c r="H505" s="37"/>
+      <c r="I505" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -16784,12 +16779,12 @@
       <c r="B1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -16802,28 +16797,28 @@
       <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -23834,17 +23829,17 @@
       <c r="I504" s="24"/>
     </row>
     <row r="505" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="37" t="s">
+      <c r="A505" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B505" s="38"/>
-      <c r="C505" s="38"/>
-      <c r="D505" s="38"/>
-      <c r="E505" s="38"/>
-      <c r="F505" s="38"/>
-      <c r="G505" s="38"/>
-      <c r="H505" s="38"/>
-      <c r="I505" s="38"/>
+      <c r="B505" s="37"/>
+      <c r="C505" s="37"/>
+      <c r="D505" s="37"/>
+      <c r="E505" s="37"/>
+      <c r="F505" s="37"/>
+      <c r="G505" s="37"/>
+      <c r="H505" s="37"/>
+      <c r="I505" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
